--- a/version_0.1a/RP2040-GPIO-Functions.xlsx
+++ b/version_0.1a/RP2040-GPIO-Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ss2343/Dropbox/Media/kicad/uSEQ-expansion-analogue_outputs/version_0.1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896A7631-C8EC-3F4F-836D-1C33D258CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF224A9-36AE-E44F-B87A-49141BC0CEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2500" windowWidth="23220" windowHeight="16160" xr2:uid="{D91B449B-06DF-0D41-8518-58C17F71C47B}"/>
+    <workbookView xWindow="1900" yWindow="4000" windowWidth="23220" windowHeight="16160" xr2:uid="{D91B449B-06DF-0D41-8518-58C17F71C47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="80">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>A8-LED</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F8BD8E-DFC1-E548-99F5-D26EFA408530}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,6 +1140,9 @@
       <c r="J13" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1225,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1254,11 +1263,8 @@
       <c r="J17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1320,8 +1326,11 @@
       <c r="J19" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1383,8 +1392,11 @@
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1413,8 +1425,11 @@
       <c r="J22" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1448,8 +1463,11 @@
       <c r="K23" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1480,8 +1498,11 @@
       <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1547,8 +1568,11 @@
       <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1579,8 +1603,11 @@
       <c r="J27" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1611,8 +1638,11 @@
       <c r="J28" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -1678,7 +1708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -1711,7 +1741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>

--- a/version_0.1a/RP2040-GPIO-Functions.xlsx
+++ b/version_0.1a/RP2040-GPIO-Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ss2343/Dropbox/Media/kicad/uSEQ-expansion-analogue_outputs/version_0.1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75CD562-D83D-FB47-B362-D8A38CDE8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D556C-DAAB-A24B-9349-C9F0DB5355AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="500" windowWidth="13780" windowHeight="19640" xr2:uid="{D91B449B-06DF-0D41-8518-58C17F71C47B}"/>
+    <workbookView xWindow="19780" yWindow="980" windowWidth="13780" windowHeight="19640" xr2:uid="{D91B449B-06DF-0D41-8518-58C17F71C47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="84">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="1"/>
@@ -284,9 +284,6 @@
     <t>A8-LED</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t>uSEQRP2040</t>
-  </si>
-  <si>
-    <t>free adc</t>
   </si>
 </sst>
 </file>
@@ -429,9 +423,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +440,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,43 +760,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F8BD8E-DFC1-E548-99F5-D26EFA408530}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="3.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="3" style="2" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="2.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="7" customWidth="1"/>
     <col min="13" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>84</v>
+      <c r="A1" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -817,7 +811,7 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -832,12 +826,12 @@
       <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -852,7 +846,7 @@
       <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -865,10 +859,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -885,7 +879,7 @@
       <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -898,18 +892,18 @@
         <v>13</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>78</v>
+      <c r="L4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -924,7 +918,7 @@
       <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -937,15 +931,15 @@
         <v>13</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -960,7 +954,7 @@
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -973,10 +967,10 @@
         <v>13</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -993,7 +987,7 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1006,18 +1000,18 @@
         <v>13</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>75</v>
+      <c r="L7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -1032,7 +1026,7 @@
       <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1045,15 +1039,15 @@
         <v>13</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -1068,7 +1062,7 @@
       <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1081,15 +1075,15 @@
         <v>13</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1104,7 +1098,7 @@
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1117,15 +1111,15 @@
         <v>13</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -1140,7 +1134,7 @@
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1153,15 +1147,15 @@
         <v>13</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="3">
@@ -1176,7 +1170,7 @@
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1189,15 +1183,15 @@
         <v>13</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="3">
@@ -1212,7 +1206,7 @@
       <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1225,15 +1219,15 @@
         <v>13</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>79</v>
+      <c r="L13" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="3">
@@ -1248,7 +1242,7 @@
       <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1261,15 +1255,15 @@
         <v>13</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>75</v>
+      <c r="L14" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="3">
@@ -1284,7 +1278,7 @@
       <c r="E15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1297,15 +1291,15 @@
         <v>13</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>75</v>
+      <c r="L15" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="3">
@@ -1320,7 +1314,7 @@
       <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1333,15 +1327,15 @@
         <v>13</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>75</v>
+      <c r="L16" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="3">
@@ -1356,7 +1350,7 @@
       <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1369,15 +1363,15 @@
         <v>13</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>67</v>
+      <c r="L17" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="3">
@@ -1392,7 +1386,7 @@
       <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1405,15 +1399,15 @@
         <v>13</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>68</v>
+      <c r="L18" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="3">
@@ -1428,7 +1422,7 @@
       <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1441,15 +1435,15 @@
         <v>13</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>75</v>
+      <c r="L19" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="3">
@@ -1464,7 +1458,7 @@
       <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1477,15 +1471,15 @@
         <v>13</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="3">
@@ -1500,7 +1494,7 @@
       <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1513,15 +1507,15 @@
         <v>13</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>75</v>
+      <c r="L21" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="3">
@@ -1536,7 +1530,7 @@
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1549,15 +1543,15 @@
         <v>13</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>75</v>
+      <c r="L22" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="3">
@@ -1572,7 +1566,7 @@
       <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1587,14 +1581,11 @@
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1610,7 +1601,7 @@
       <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1625,15 +1616,15 @@
       <c r="J24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>75</v>
+      <c r="L24" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25" s="3">
@@ -1648,7 +1639,7 @@
       <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1663,18 +1654,18 @@
       <c r="J25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26" s="3">
@@ -1689,7 +1680,7 @@
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1704,15 +1695,15 @@
       <c r="J26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>75</v>
+      <c r="L26" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
       <c r="B27" s="3">
@@ -1727,7 +1718,7 @@
       <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1742,15 +1733,15 @@
       <c r="J27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>75</v>
+      <c r="L27" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="3">
@@ -1765,7 +1756,7 @@
       <c r="E28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1780,16 +1771,16 @@
       <c r="J28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>75</v>
+      <c r="L28" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>80</v>
+      <c r="A29" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B29" s="3">
         <v>26</v>
@@ -1803,7 +1794,7 @@
       <c r="E29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1816,16 +1807,13 @@
         <v>13</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>81</v>
+      <c r="A30" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B30" s="3">
         <v>27</v>
@@ -1839,7 +1827,7 @@
       <c r="E30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -1852,16 +1840,13 @@
         <v>13</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>82</v>
+      <c r="A31" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="3">
         <v>28</v>
@@ -1875,7 +1860,7 @@
       <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1888,16 +1873,13 @@
         <v>13</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>83</v>
+      <c r="A32" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="3">
         <v>29</v>
@@ -1911,7 +1893,7 @@
       <c r="E32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1924,11 +1906,8 @@
         <v>13</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
